--- a/data/Classess_2021_biology.xlsx
+++ b/data/Classess_2021_biology.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9407"/>
+    <workbookView windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,18 @@
     <t>Group</t>
   </si>
   <si>
+    <t>Абылай</t>
+  </si>
+  <si>
+    <t>Ильяс</t>
+  </si>
+  <si>
+    <t>st082193</t>
+  </si>
+  <si>
+    <t>st082193@student.spbu.ru</t>
+  </si>
+  <si>
     <t>Авдеенко</t>
   </si>
   <si>
@@ -568,18 +580,6 @@
     <t>st090747@student.spbu.ru</t>
   </si>
   <si>
-    <t>Ильяс</t>
-  </si>
-  <si>
-    <t>Абылай</t>
-  </si>
-  <si>
-    <t>st082193</t>
-  </si>
-  <si>
-    <t>st082193@student.spbu.ru</t>
-  </si>
-  <si>
     <t>Исхакова</t>
   </si>
   <si>
@@ -1222,7 +1222,7 @@
     <t xml:space="preserve">Елизавета </t>
   </si>
   <si>
-    <t>st0903552</t>
+    <t>st093552</t>
   </si>
   <si>
     <t>st093552@student.spbu.ru</t>
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1439,6 +1439,14 @@
       <charset val="204"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1450,36 +1458,19 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1493,9 +1484,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1510,52 +1522,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1569,8 +1545,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1584,8 +1583,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1612,19 +1612,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,7 +1642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,109 +1672,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,7 +1714,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,13 +1786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,11 +1873,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1892,6 +1898,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1924,45 +1945,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1979,59 +1961,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2047,23 +2047,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2395,9 +2406,9 @@
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2437,34 +2448,31 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -2472,19 +2480,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2492,19 +2500,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -2512,19 +2520,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2532,13 +2540,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -2558,7 +2566,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -2578,7 +2586,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -2598,7 +2606,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>45</v>
@@ -2618,13 +2626,13 @@
         <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2632,13 +2640,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>54</v>
@@ -2658,13 +2666,13 @@
         <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2672,79 +2680,79 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -2752,19 +2760,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -2772,79 +2780,79 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="12">
         <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -2852,19 +2860,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -2872,10 +2880,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>111</v>
@@ -2891,43 +2899,43 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="10">
+      <c r="E25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="12">
         <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="4">
-        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2935,7 +2943,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>122</v>
@@ -2943,11 +2951,11 @@
       <c r="D27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2955,15 +2963,15 @@
         <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="7" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="4">
@@ -2978,13 +2986,13 @@
         <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -2992,10 +3000,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>135</v>
@@ -3011,223 +3019,223 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="10">
+      <c r="B32" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="10">
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="10">
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="9" t="s">
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="10">
+      <c r="B35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:6">
-      <c r="A35" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="10">
+    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="A36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="9" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:6">
+      <c r="A37" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="10">
+      <c r="B37" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="10">
+    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="A38" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:6">
-      <c r="A38" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="10">
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="11" t="s">
+    <row r="40" s="1" customFormat="1" spans="1:6">
+      <c r="A40" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="10">
+      <c r="B40" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="10">
+    <row r="41" spans="1:6">
+      <c r="A41" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3235,96 +3243,98 @@
         <v>183</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F42" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="B44" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="B46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3336,12 +3346,12 @@
         <v>204</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="18" t="s">
         <v>206</v>
       </c>
       <c r="F47" s="4">
@@ -3349,82 +3359,82 @@
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:6">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="12">
         <v>4</v>
       </c>
     </row>
@@ -3433,10 +3443,10 @@
         <v>224</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>225</v>
@@ -3449,82 +3459,82 @@
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:6">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:6">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="B56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="12">
         <v>4</v>
       </c>
     </row>
@@ -3533,7 +3543,7 @@
         <v>244</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>245</v>
@@ -3553,7 +3563,7 @@
         <v>248</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>249</v>
@@ -3573,7 +3583,7 @@
         <v>252</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>253</v>
@@ -3596,7 +3606,7 @@
         <v>228</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>257</v>
@@ -3613,10 +3623,10 @@
         <v>259</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>260</v>
@@ -3633,7 +3643,7 @@
         <v>262</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>263</v>
@@ -3673,10 +3683,10 @@
         <v>271</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>272</v>
@@ -3696,7 +3706,7 @@
         <v>228</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>275</v>
@@ -3733,10 +3743,10 @@
         <v>282</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>283</v>
@@ -3749,42 +3759,42 @@
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:6">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="B68" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:6">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="B69" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="12">
         <v>4</v>
       </c>
     </row>
@@ -3816,7 +3826,7 @@
         <v>296</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>297</v>
@@ -3833,10 +3843,10 @@
         <v>299</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>300</v>
@@ -3873,7 +3883,7 @@
         <v>307</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>308</v>
@@ -3913,7 +3923,7 @@
         <v>316</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>189</v>
@@ -3936,7 +3946,7 @@
         <v>233</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>320</v>
@@ -3956,7 +3966,7 @@
         <v>323</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>324</v>
@@ -4001,7 +4011,7 @@
       <c r="D80" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="17" t="s">
         <v>334</v>
       </c>
       <c r="F80" s="4">
@@ -4033,10 +4043,10 @@
         <v>340</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>341</v>
@@ -4053,7 +4063,7 @@
         <v>343</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>344</v>
@@ -4076,12 +4086,12 @@
         <v>348</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="17" t="s">
         <v>350</v>
       </c>
       <c r="F84" s="4">
@@ -4133,10 +4143,10 @@
         <v>360</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>361</v>
@@ -4176,7 +4186,7 @@
         <v>368</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>369</v>
@@ -4213,7 +4223,7 @@
         <v>375</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>209</v>
@@ -4236,7 +4246,7 @@
         <v>379</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>380</v>
@@ -4276,7 +4286,7 @@
         <v>388</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>389</v>
@@ -4313,7 +4323,7 @@
         <v>396</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>245</v>
@@ -4336,15 +4346,15 @@
         <v>400</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F97" s="15">
+      <c r="F97" s="19">
         <v>7</v>
       </c>
     </row>
@@ -4356,7 +4366,7 @@
         <v>404</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>405</v>
@@ -4373,7 +4383,7 @@
         <v>407</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>238</v>
@@ -4381,7 +4391,7 @@
       <c r="D99" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="20" t="s">
         <v>409</v>
       </c>
       <c r="F99" s="4">
@@ -4433,7 +4443,7 @@
         <v>420</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>421</v>
@@ -4453,10 +4463,10 @@
         <v>424</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>425</v>
@@ -4473,10 +4483,10 @@
         <v>427</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>428</v>
@@ -4496,7 +4506,7 @@
         <v>296</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>431</v>
@@ -4533,7 +4543,7 @@
         <v>438</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>421</v>
@@ -4553,7 +4563,7 @@
         <v>441</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>253</v>
@@ -4576,7 +4586,7 @@
         <v>445</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>446</v>
@@ -4613,10 +4623,10 @@
         <v>453</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>454</v>
@@ -4633,7 +4643,7 @@
         <v>456</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>457</v>
@@ -4677,11 +4687,11 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E43" r:id="rId1" display="st085111@student.spbu.ru"/>
-    <hyperlink ref="E38" r:id="rId2" display="st087714@student.spbu.ru"/>
-    <hyperlink ref="E26" r:id="rId3" display="st076617@student.spbu.ru"/>
+    <hyperlink ref="E39" r:id="rId2" display="st087714@student.spbu.ru"/>
+    <hyperlink ref="E27" r:id="rId3" display="st076617@student.spbu.ru"/>
     <hyperlink ref="E97" r:id="rId4" display="st093552@student.spbu.ru" tooltip="mailto:st093552@student.spbu.ru"/>
-    <hyperlink ref="E42" r:id="rId5" display="st082193@student.spbu.ru"/>
-    <hyperlink ref="E27" r:id="rId6" display="st089463@student.spbu.ru"/>
+    <hyperlink ref="E2" r:id="rId5" display="st082193@student.spbu.ru"/>
+    <hyperlink ref="E28" r:id="rId6" display="st089463@student.spbu.ru"/>
     <hyperlink ref="E68" r:id="rId7" display="st060046@ad.pu.ru"/>
     <hyperlink ref="E47" r:id="rId8" display="st082342@ad.pu.ru"/>
   </hyperlinks>

--- a/data/Classess_2021_biology.xlsx
+++ b/data/Classess_2021_biology.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="469">
   <si>
     <t>Family</t>
   </si>
@@ -1412,6 +1412,18 @@
   </si>
   <si>
     <t>st087516@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Озеров</t>
+  </si>
+  <si>
+    <t>Степан</t>
+  </si>
+  <si>
+    <t>st071537</t>
+  </si>
+  <si>
+    <t>st071537@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -1419,12 +1431,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1462,23 +1474,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="10.5"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1500,14 +1504,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1521,9 +1541,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1538,7 +1572,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1553,23 +1587,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1583,9 +1602,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1612,7 +1630,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,13 +1666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,13 +1678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,19 +1702,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,37 +1762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,25 +1786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,31 +1810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,6 +1906,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1899,6 +1932,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1927,41 +1969,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1979,59 +1986,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2075,6 +2093,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2403,12 +2422,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4675,6 +4694,26 @@
         <v>464</v>
       </c>
       <c r="F113" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" ht="16.8" spans="1:6">
+      <c r="A114" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F114" s="4">
         <v>8</v>
       </c>
     </row>
@@ -4694,12 +4733,10 @@
     <hyperlink ref="E28" r:id="rId6" display="st089463@student.spbu.ru"/>
     <hyperlink ref="E68" r:id="rId7" display="st060046@ad.pu.ru"/>
     <hyperlink ref="E47" r:id="rId8" display="st082342@ad.pu.ru"/>
+    <hyperlink ref="E114" r:id="rId9" display="st071537@student.spbu.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" fitToWidth="0" fitToHeight="0" orientation="portrait" errors="blank" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="D114:E114 B114:C114" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Classess_2021_biology.xlsx
+++ b/data/Classess_2021_biology.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$114</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1431,10 +1431,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1482,47 +1482,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -1533,24 +1504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1572,23 +1528,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1602,8 +1557,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1630,7 +1630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,37 +1642,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,7 +1696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,13 +1726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,13 +1750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,55 +1774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,13 +1798,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,17 +1891,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1921,21 +1915,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1946,34 +1925,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1997,57 +1958,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2425,9 +2425,9 @@
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4718,7 +4718,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F113">
+  <autoFilter ref="A1:F114">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:F113">

--- a/data/Classess_2021_biology.xlsx
+++ b/data/Classess_2021_biology.xlsx
@@ -1431,10 +1431,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1488,12 +1488,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="204"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1504,16 +1503,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1528,12 +1520,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1541,7 +1580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1557,46 +1595,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1630,7 +1630,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,7 +1660,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,7 +1726,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,151 +1792,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,6 +1894,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1918,8 +1942,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,11 +1963,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1958,96 +1997,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2425,9 +2425,9 @@
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4731,7 +4731,7 @@
     <hyperlink ref="E97" r:id="rId4" display="st093552@student.spbu.ru" tooltip="mailto:st093552@student.spbu.ru"/>
     <hyperlink ref="E2" r:id="rId5" display="st082193@student.spbu.ru"/>
     <hyperlink ref="E28" r:id="rId6" display="st089463@student.spbu.ru"/>
-    <hyperlink ref="E68" r:id="rId7" display="st060046@ad.pu.ru"/>
+    <hyperlink ref="E68" r:id="rId7" display="st060046@ad.pu.ru" tooltip="mailto:st060046@ad.pu.ru"/>
     <hyperlink ref="E47" r:id="rId8" display="st082342@ad.pu.ru"/>
     <hyperlink ref="E114" r:id="rId9" display="st071537@student.spbu.ru"/>
   </hyperlinks>

--- a/data/Classess_2021_biology.xlsx
+++ b/data/Classess_2021_biology.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="473">
   <si>
     <t>Family</t>
   </si>
@@ -1424,6 +1424,18 @@
   </si>
   <si>
     <t>st071537@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Юрьева</t>
+  </si>
+  <si>
+    <t>Карина</t>
+  </si>
+  <si>
+    <t>st068449</t>
+  </si>
+  <si>
+    <t>st068449@ad.pu.ru</t>
   </si>
 </sst>
 </file>
@@ -1431,10 +1443,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1495,9 +1507,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1512,8 +1531,60 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1526,8 +1597,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1541,37 +1613,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1579,37 +1620,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1630,7 +1642,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,19 +1786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,103 +1798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,19 +1810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,18 +1828,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1891,11 +1909,33 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,32 +1957,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1981,75 +1999,88 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2094,6 +2125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2422,12 +2454,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4715,6 +4747,26 @@
       </c>
       <c r="F114" s="4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4734,6 +4786,7 @@
     <hyperlink ref="E68" r:id="rId7" display="st060046@ad.pu.ru" tooltip="mailto:st060046@ad.pu.ru"/>
     <hyperlink ref="E47" r:id="rId8" display="st082342@ad.pu.ru"/>
     <hyperlink ref="E114" r:id="rId9" display="st071537@student.spbu.ru"/>
+    <hyperlink ref="E115" r:id="rId10" display="st068449@ad.pu.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" fitToWidth="0" fitToHeight="0" orientation="portrait" errors="blank" horizontalDpi="600" verticalDpi="600"/>
